--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1418.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1418.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.6639691937415</v>
+        <v>1.15828275680542</v>
       </c>
       <c r="B1">
-        <v>2.095048632676503</v>
+        <v>1.088173151016235</v>
       </c>
       <c r="C1">
-        <v>2.269017359602989</v>
+        <v>6.737033843994141</v>
       </c>
       <c r="D1">
-        <v>2.661814314649296</v>
+        <v>2.032927751541138</v>
       </c>
       <c r="E1">
-        <v>3.141928172235971</v>
+        <v>1.129818201065063</v>
       </c>
     </row>
   </sheetData>
